--- a/Inputs/InputSchedule4.xlsx
+++ b/Inputs/InputSchedule4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mj17811\OneDrive - University of Bristol\Documents\DP5_modelling\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EC72D3-B5BB-4F34-B09B-7D959B67B778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE52610-5AF3-40F7-A1DA-E03397DFD70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="95">
   <si>
     <t>Case</t>
   </si>
@@ -264,79 +264,58 @@
     <t>Cooling</t>
   </si>
   <si>
-    <t>Charging Before LIDL</t>
-  </si>
-  <si>
-    <t>Charging Before Redpoint</t>
-  </si>
-  <si>
-    <t>Charging Before Work Thurs</t>
-  </si>
-  <si>
-    <t>Charging Before Work Wed</t>
-  </si>
-  <si>
-    <t>Charging Before Work Tues</t>
-  </si>
-  <si>
-    <t>Charging Before Work Fri</t>
-  </si>
-  <si>
-    <t>Charging Before The Wave</t>
-  </si>
-  <si>
-    <t>Charging Before Sat Trip</t>
-  </si>
-  <si>
-    <t>Charging Weekend</t>
-  </si>
-  <si>
-    <t>Bristol, UK, BS35 5RE</t>
-  </si>
-  <si>
-    <t>Bristol, UK, BS3 2NW</t>
-  </si>
-  <si>
-    <t>Bristol, UK, BS3 4EG</t>
-  </si>
-  <si>
-    <t>Gloucester, UK, GL12 8JR</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
     <t>Feb House Charging</t>
   </si>
   <si>
+    <t>March House Charging</t>
+  </si>
+  <si>
+    <t>April House Charging</t>
+  </si>
+  <si>
+    <t>May House Charging</t>
+  </si>
+  <si>
+    <t>June House Charging</t>
+  </si>
+  <si>
+    <t>July House Charging</t>
+  </si>
+  <si>
+    <t>August House Charging</t>
+  </si>
+  <si>
+    <t>Sept House Charging</t>
+  </si>
+  <si>
+    <t>Oct House Charging</t>
+  </si>
+  <si>
+    <t>Nov House Charging</t>
+  </si>
+  <si>
     <t>Fixed22Tariff.csv</t>
   </si>
   <si>
-    <t>London, UK</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
     <t>Jan House Charging</t>
   </si>
   <si>
-    <t>Agile Tariff</t>
-  </si>
-  <si>
-    <t>AgileExport.csv</t>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Dec House Charging</t>
   </si>
   <si>
     <t>Change CO2e</t>
   </si>
   <si>
-    <t>AgileExtract2.csv</t>
+    <t>Carbon Kg per litre Fuel</t>
   </si>
   <si>
     <t>Gas Carbon Intensity</t>
-  </si>
-  <si>
-    <t>Carbon Kg per litre Fuel</t>
   </si>
 </sst>
 </file>
@@ -834,7 +813,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -864,6 +843,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -909,7 +889,7 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="83">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -955,6 +935,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -965,13 +952,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1006,6 +986,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1023,34 +1010,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1061,6 +1020,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1163,34 +1136,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1201,6 +1146,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1252,6 +1204,69 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1296,41 +1311,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1341,6 +1321,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1351,6 +1338,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1442,6 +1436,92 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1800,12 +1880,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU42"/>
+  <dimension ref="A1:BU26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="BU2" sqref="BU2:BU41"/>
+      <selection pane="bottomLeft" activeCell="AM2" sqref="AM2:AM25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1963,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1982,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AN1" s="6" t="s">
         <v>23</v>
@@ -2084,7 +2164,7 @@
         <v>70</v>
       </c>
       <c r="BU1" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
@@ -2095,7 +2175,7 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2134,10 +2214,10 @@
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>49</v>
@@ -2173,7 +2253,7 @@
         <v>42</v>
       </c>
       <c r="AG2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>52</v>
@@ -2182,7 +2262,7 @@
         <v>43</v>
       </c>
       <c r="AK2" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL2" s="8">
         <v>0.8</v>
@@ -2282,7 +2362,7 @@
       <c r="BT2" s="8">
         <v>50</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -2294,13 +2374,12 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F7" si="0">(A3-1)*1000</f>
         <v>0</v>
       </c>
       <c r="G3" s="9"/>
@@ -2333,10 +2412,10 @@
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>49</v>
@@ -2351,10 +2430,10 @@
         <v>0.2</v>
       </c>
       <c r="Y3" s="13">
-        <v>44199.770833333336</v>
+        <v>44228</v>
       </c>
       <c r="Z3" s="13">
-        <v>44200.8125</v>
+        <v>44235</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>67</v>
@@ -2363,16 +2442,16 @@
         <v>68</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AD3" s="13">
-        <v>44228.8125</v>
+        <v>44235</v>
       </c>
       <c r="AF3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH3" s="8" t="s">
         <v>52</v>
@@ -2381,7 +2460,7 @@
         <v>43</v>
       </c>
       <c r="AK3" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL3" s="8">
         <v>0.8</v>
@@ -2390,7 +2469,7 @@
         <v>203</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="8">
         <v>0</v>
@@ -2481,7 +2560,7 @@
       <c r="BT3" s="8">
         <v>50</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -2493,13 +2572,12 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="9"/>
@@ -2532,10 +2610,10 @@
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>49</v>
@@ -2550,10 +2628,10 @@
         <v>0.2</v>
       </c>
       <c r="Y4" s="13">
-        <v>44200.854166666664</v>
+        <v>44256</v>
       </c>
       <c r="Z4" s="13">
-        <v>44201.354166666664</v>
+        <v>44263</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>67</v>
@@ -2561,17 +2639,17 @@
       <c r="AB4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" t="s">
-        <v>89</v>
+      <c r="AC4" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD4" s="13">
-        <v>44229.354166666664</v>
+        <v>44263</v>
       </c>
       <c r="AF4" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG4" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="8" t="s">
         <v>52</v>
@@ -2580,7 +2658,7 @@
         <v>43</v>
       </c>
       <c r="AK4" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL4" s="8">
         <v>0.8</v>
@@ -2589,7 +2667,7 @@
         <v>203</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="8">
         <v>0</v>
@@ -2680,7 +2758,7 @@
       <c r="BT4" s="8">
         <v>50</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -2698,7 +2776,6 @@
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="9"/>
@@ -2731,10 +2808,10 @@
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>49</v>
@@ -2749,10 +2826,10 @@
         <v>0.2</v>
       </c>
       <c r="Y5" s="13">
-        <v>44201.770833333336</v>
+        <v>44291</v>
       </c>
       <c r="Z5" s="13">
-        <v>44202.354166666664</v>
+        <v>44298</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>67</v>
@@ -2760,17 +2837,17 @@
       <c r="AB5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC5" t="s">
-        <v>89</v>
+      <c r="AC5" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD5" s="13">
-        <v>44230.354166666664</v>
+        <v>44298</v>
       </c>
       <c r="AF5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="8" t="s">
         <v>52</v>
@@ -2779,7 +2856,7 @@
         <v>43</v>
       </c>
       <c r="AK5" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL5" s="8">
         <v>0.8</v>
@@ -2788,7 +2865,7 @@
         <v>203</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="8">
         <v>0</v>
@@ -2879,7 +2956,7 @@
       <c r="BT5" s="8">
         <v>50</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -2891,13 +2968,12 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="9"/>
@@ -2930,10 +3006,10 @@
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>49</v>
@@ -2948,10 +3024,10 @@
         <v>0.2</v>
       </c>
       <c r="Y6" s="13">
-        <v>44202.770833333336</v>
+        <v>44319</v>
       </c>
       <c r="Z6" s="13">
-        <v>44202.8125</v>
+        <v>44326</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>67</v>
@@ -2960,16 +3036,16 @@
         <v>68</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AD6" s="13">
-        <v>44230.8125</v>
+        <v>44326</v>
       </c>
       <c r="AF6" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG6" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH6" s="8" t="s">
         <v>52</v>
@@ -2978,7 +3054,7 @@
         <v>43</v>
       </c>
       <c r="AK6" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL6" s="8">
         <v>0.8</v>
@@ -2987,7 +3063,7 @@
         <v>203</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="8">
         <v>0</v>
@@ -3078,7 +3154,7 @@
       <c r="BT6" s="8">
         <v>50</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -3090,13 +3166,12 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="9"/>
@@ -3129,10 +3204,10 @@
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>49</v>
@@ -3147,10 +3222,10 @@
         <v>0.2</v>
       </c>
       <c r="Y7" s="13">
-        <v>44202.854166666664</v>
+        <v>44354</v>
       </c>
       <c r="Z7" s="13">
-        <v>44203.354166666664</v>
+        <v>44361</v>
       </c>
       <c r="AA7" s="11" t="s">
         <v>67</v>
@@ -3158,17 +3233,17 @@
       <c r="AB7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC7" t="s">
-        <v>89</v>
+      <c r="AC7" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD7" s="13">
-        <v>44231.354166666664</v>
+        <v>44361</v>
       </c>
       <c r="AF7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="8" t="s">
         <v>52</v>
@@ -3177,7 +3252,7 @@
         <v>43</v>
       </c>
       <c r="AK7" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL7" s="8">
         <v>0.8</v>
@@ -3186,7 +3261,7 @@
         <v>203</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="8">
         <v>0</v>
@@ -3277,7 +3352,7 @@
       <c r="BT7" s="8">
         <v>50</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -3289,7 +3364,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3327,10 +3402,10 @@
       </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>49</v>
@@ -3345,10 +3420,10 @@
         <v>0.2</v>
       </c>
       <c r="Y8" s="13">
-        <v>44203.770833333336</v>
+        <v>44382</v>
       </c>
       <c r="Z8" s="13">
-        <v>44204.354166666664</v>
+        <v>44389</v>
       </c>
       <c r="AA8" s="11" t="s">
         <v>67</v>
@@ -3356,17 +3431,17 @@
       <c r="AB8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC8" t="s">
-        <v>89</v>
+      <c r="AC8" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD8" s="13">
-        <v>44234.354166666664</v>
+        <v>44389</v>
       </c>
       <c r="AF8" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="8" t="s">
         <v>52</v>
@@ -3375,7 +3450,7 @@
         <v>43</v>
       </c>
       <c r="AK8" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL8" s="8">
         <v>0.8</v>
@@ -3384,7 +3459,7 @@
         <v>203</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="8">
         <v>0</v>
@@ -3475,7 +3550,7 @@
       <c r="BT8" s="8">
         <v>50</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -3487,7 +3562,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3525,10 +3600,10 @@
       </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>49</v>
@@ -3543,10 +3618,10 @@
         <v>0.2</v>
       </c>
       <c r="Y9" s="13">
-        <v>44204.770833333336</v>
+        <v>44410</v>
       </c>
       <c r="Z9" s="13">
-        <v>44204.8125</v>
+        <v>44417</v>
       </c>
       <c r="AA9" s="11" t="s">
         <v>67</v>
@@ -3555,16 +3630,16 @@
         <v>68</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AD9" s="13">
-        <v>44232.8125</v>
+        <v>44417</v>
       </c>
       <c r="AF9" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG9" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>52</v>
@@ -3573,7 +3648,7 @@
         <v>43</v>
       </c>
       <c r="AK9" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL9" s="8">
         <v>0.8</v>
@@ -3582,7 +3657,7 @@
         <v>203</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="8">
         <v>0</v>
@@ -3673,7 +3748,7 @@
       <c r="BT9" s="8">
         <v>50</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -3685,7 +3760,7 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3723,10 +3798,10 @@
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T10" s="8" t="s">
         <v>49</v>
@@ -3741,10 +3816,10 @@
         <v>0.2</v>
       </c>
       <c r="Y10" s="13">
-        <v>44204.854166666664</v>
+        <v>44445</v>
       </c>
       <c r="Z10" s="13">
-        <v>44205.354166666664</v>
+        <v>44452</v>
       </c>
       <c r="AA10" s="11" t="s">
         <v>67</v>
@@ -3752,17 +3827,17 @@
       <c r="AB10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" t="s">
-        <v>93</v>
+      <c r="AC10" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD10" s="13">
-        <v>44233.354166666664</v>
+        <v>44452</v>
       </c>
       <c r="AF10" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG10" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH10" s="8" t="s">
         <v>52</v>
@@ -3771,7 +3846,7 @@
         <v>43</v>
       </c>
       <c r="AK10" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL10" s="8">
         <v>0.8</v>
@@ -3780,7 +3855,7 @@
         <v>203</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="8">
         <v>0</v>
@@ -3871,7 +3946,7 @@
       <c r="BT10" s="8">
         <v>50</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -3883,7 +3958,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3921,10 +3996,10 @@
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>49</v>
@@ -3939,10 +4014,10 @@
         <v>0.2</v>
       </c>
       <c r="Y11" s="13">
-        <v>44205.770833333336</v>
+        <v>44473</v>
       </c>
       <c r="Z11" s="13">
-        <v>44207</v>
+        <v>44480</v>
       </c>
       <c r="AA11" s="11" t="s">
         <v>67</v>
@@ -3951,16 +4026,16 @@
         <v>68</v>
       </c>
       <c r="AC11" s="11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AD11" s="13">
-        <v>44235</v>
+        <v>44480</v>
       </c>
       <c r="AF11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH11" s="8" t="s">
         <v>52</v>
@@ -3969,7 +4044,7 @@
         <v>43</v>
       </c>
       <c r="AK11" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL11" s="8">
         <v>0.8</v>
@@ -3978,7 +4053,7 @@
         <v>203</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="8">
         <v>0</v>
@@ -4069,7 +4144,7 @@
       <c r="BT11" s="8">
         <v>50</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" s="8">
         <v>2.7</v>
       </c>
     </row>
@@ -4081,7 +4156,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4119,10 +4194,10 @@
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>49</v>
@@ -4137,10 +4212,10 @@
         <v>0.2</v>
       </c>
       <c r="Y12" s="13">
-        <v>44228</v>
+        <v>44501</v>
       </c>
       <c r="Z12" s="13">
-        <v>44235</v>
+        <v>44508</v>
       </c>
       <c r="AA12" s="11" t="s">
         <v>67</v>
@@ -4152,13 +4227,13 @@
         <v>67</v>
       </c>
       <c r="AD12" s="13">
-        <v>44235</v>
+        <v>44508</v>
       </c>
       <c r="AF12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG12" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH12" s="8" t="s">
         <v>52</v>
@@ -4167,7 +4242,7 @@
         <v>43</v>
       </c>
       <c r="AK12" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL12" s="8">
         <v>0.8</v>
@@ -4267,19 +4342,19 @@
       <c r="BT12" s="8">
         <v>50</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="14">
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4317,10 +4392,10 @@
       </c>
       <c r="Q13" s="10"/>
       <c r="R13" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>49</v>
@@ -4335,10 +4410,10 @@
         <v>0.2</v>
       </c>
       <c r="Y13" s="13">
-        <v>44228.770833333336</v>
+        <v>44536</v>
       </c>
       <c r="Z13" s="13">
-        <v>44228.8125</v>
+        <v>44543</v>
       </c>
       <c r="AA13" s="11" t="s">
         <v>67</v>
@@ -4347,16 +4422,16 @@
         <v>68</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AD13" s="13">
-        <v>44228.8125</v>
+        <v>44543</v>
       </c>
       <c r="AF13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG13" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH13" s="8" t="s">
         <v>52</v>
@@ -4365,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="AK13" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL13" s="8">
         <v>0.8</v>
@@ -4374,7 +4449,7 @@
         <v>203</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="8">
         <v>0</v>
@@ -4465,25 +4540,25 @@
       <c r="BT13" s="8">
         <v>50</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F14" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8">
@@ -4515,10 +4590,10 @@
       </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>49</v>
@@ -4533,10 +4608,10 @@
         <v>0.2</v>
       </c>
       <c r="Y14" s="13">
-        <v>44228.854166666664</v>
+        <v>44200</v>
       </c>
       <c r="Z14" s="13">
-        <v>44229.354166666664</v>
+        <v>44207</v>
       </c>
       <c r="AA14" s="11" t="s">
         <v>67</v>
@@ -4544,17 +4619,17 @@
       <c r="AB14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC14" t="s">
-        <v>89</v>
+      <c r="AC14" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD14" s="13">
-        <v>44229.354166666664</v>
+        <v>44235</v>
       </c>
       <c r="AF14" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG14" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH14" s="8" t="s">
         <v>52</v>
@@ -4563,7 +4638,7 @@
         <v>43</v>
       </c>
       <c r="AK14" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL14" s="8">
         <v>0.8</v>
@@ -4572,10 +4647,10 @@
         <v>203</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="8">
         <v>5</v>
@@ -4663,25 +4738,25 @@
       <c r="BT14" s="8">
         <v>50</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F15" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8">
@@ -4713,10 +4788,10 @@
       </c>
       <c r="Q15" s="10"/>
       <c r="R15" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>49</v>
@@ -4731,10 +4806,10 @@
         <v>0.2</v>
       </c>
       <c r="Y15" s="13">
-        <v>44229.770833333336</v>
+        <v>44228</v>
       </c>
       <c r="Z15" s="13">
-        <v>44230.354166666664</v>
+        <v>44235</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>67</v>
@@ -4742,17 +4817,17 @@
       <c r="AB15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC15" t="s">
-        <v>89</v>
+      <c r="AC15" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD15" s="13">
-        <v>44230.354166666664</v>
+        <v>44235</v>
       </c>
       <c r="AF15" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG15" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH15" s="8" t="s">
         <v>52</v>
@@ -4761,7 +4836,7 @@
         <v>43</v>
       </c>
       <c r="AK15" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL15" s="8">
         <v>0.8</v>
@@ -4770,10 +4845,10 @@
         <v>203</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="8">
         <v>5</v>
@@ -4861,25 +4936,25 @@
       <c r="BT15" s="8">
         <v>50</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F16" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8">
@@ -4911,10 +4986,10 @@
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>49</v>
@@ -4929,10 +5004,10 @@
         <v>0.2</v>
       </c>
       <c r="Y16" s="13">
-        <v>44230.770833333336</v>
+        <v>44256</v>
       </c>
       <c r="Z16" s="13">
-        <v>44230.8125</v>
+        <v>44263</v>
       </c>
       <c r="AA16" s="11" t="s">
         <v>67</v>
@@ -4941,16 +5016,16 @@
         <v>68</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AD16" s="13">
-        <v>44230.8125</v>
+        <v>44263</v>
       </c>
       <c r="AF16" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH16" s="8" t="s">
         <v>52</v>
@@ -4959,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="AK16" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL16" s="8">
         <v>0.8</v>
@@ -4968,10 +5043,10 @@
         <v>203</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="8">
         <v>5</v>
@@ -5059,25 +5134,25 @@
       <c r="BT16" s="8">
         <v>50</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F17" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8">
@@ -5109,10 +5184,10 @@
       </c>
       <c r="Q17" s="10"/>
       <c r="R17" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S17" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T17" s="8" t="s">
         <v>49</v>
@@ -5127,10 +5202,10 @@
         <v>0.2</v>
       </c>
       <c r="Y17" s="13">
-        <v>44230.854166666664</v>
+        <v>44291</v>
       </c>
       <c r="Z17" s="13">
-        <v>44231.354166666664</v>
+        <v>44298</v>
       </c>
       <c r="AA17" s="11" t="s">
         <v>67</v>
@@ -5138,17 +5213,17 @@
       <c r="AB17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC17" t="s">
-        <v>89</v>
+      <c r="AC17" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD17" s="13">
-        <v>44231.354166666664</v>
+        <v>44298</v>
       </c>
       <c r="AF17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG17" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH17" s="8" t="s">
         <v>52</v>
@@ -5157,7 +5232,7 @@
         <v>43</v>
       </c>
       <c r="AK17" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL17" s="8">
         <v>0.8</v>
@@ -5166,10 +5241,10 @@
         <v>203</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="8">
         <v>5</v>
@@ -5257,25 +5332,25 @@
       <c r="BT17" s="8">
         <v>50</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F18" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="8">
@@ -5307,10 +5382,10 @@
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>49</v>
@@ -5325,10 +5400,10 @@
         <v>0.2</v>
       </c>
       <c r="Y18" s="13">
-        <v>44231.770833333336</v>
+        <v>44319</v>
       </c>
       <c r="Z18" s="13">
-        <v>44232.354166666664</v>
+        <v>44326</v>
       </c>
       <c r="AA18" s="11" t="s">
         <v>67</v>
@@ -5336,17 +5411,17 @@
       <c r="AB18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC18" t="s">
-        <v>89</v>
+      <c r="AC18" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD18" s="13">
-        <v>44234.354166666664</v>
+        <v>44326</v>
       </c>
       <c r="AF18" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG18" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH18" s="8" t="s">
         <v>52</v>
@@ -5355,7 +5430,7 @@
         <v>43</v>
       </c>
       <c r="AK18" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL18" s="8">
         <v>0.8</v>
@@ -5364,10 +5439,10 @@
         <v>203</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="8">
         <v>5</v>
@@ -5455,25 +5530,25 @@
       <c r="BT18" s="8">
         <v>50</v>
       </c>
-      <c r="BU18">
+      <c r="BU18" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F19" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="8">
@@ -5505,10 +5580,10 @@
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T19" s="8" t="s">
         <v>49</v>
@@ -5523,10 +5598,10 @@
         <v>0.2</v>
       </c>
       <c r="Y19" s="13">
-        <v>44232.770833333336</v>
+        <v>44354</v>
       </c>
       <c r="Z19" s="13">
-        <v>44232.8125</v>
+        <v>44361</v>
       </c>
       <c r="AA19" s="11" t="s">
         <v>67</v>
@@ -5535,16 +5610,16 @@
         <v>68</v>
       </c>
       <c r="AC19" s="11" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AD19" s="13">
-        <v>44232.8125</v>
+        <v>44361</v>
       </c>
       <c r="AF19" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG19" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH19" s="8" t="s">
         <v>52</v>
@@ -5553,7 +5628,7 @@
         <v>43</v>
       </c>
       <c r="AK19" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL19" s="8">
         <v>0.8</v>
@@ -5562,10 +5637,10 @@
         <v>203</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="8">
         <v>5</v>
@@ -5653,25 +5728,25 @@
       <c r="BT19" s="8">
         <v>50</v>
       </c>
-      <c r="BU19">
+      <c r="BU19" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F20" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="8">
@@ -5703,10 +5778,10 @@
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>49</v>
@@ -5721,10 +5796,10 @@
         <v>0.2</v>
       </c>
       <c r="Y20" s="13">
-        <v>44232.854166666664</v>
+        <v>44382</v>
       </c>
       <c r="Z20" s="13">
-        <v>44233.354166666664</v>
+        <v>44389</v>
       </c>
       <c r="AA20" s="11" t="s">
         <v>67</v>
@@ -5732,17 +5807,17 @@
       <c r="AB20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC20" t="s">
-        <v>93</v>
+      <c r="AC20" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD20" s="13">
-        <v>44233.354166666664</v>
+        <v>44389</v>
       </c>
       <c r="AF20" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG20" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH20" s="8" t="s">
         <v>52</v>
@@ -5751,7 +5826,7 @@
         <v>43</v>
       </c>
       <c r="AK20" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL20" s="8">
         <v>0.8</v>
@@ -5760,10 +5835,10 @@
         <v>203</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="8">
         <v>5</v>
@@ -5851,25 +5926,25 @@
       <c r="BT20" s="8">
         <v>50</v>
       </c>
-      <c r="BU20">
+      <c r="BU20" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F21" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="8">
@@ -5901,10 +5976,10 @@
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S21" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T21" s="8" t="s">
         <v>49</v>
@@ -5919,10 +5994,10 @@
         <v>0.2</v>
       </c>
       <c r="Y21" s="13">
-        <v>44233.770833333336</v>
+        <v>44410</v>
       </c>
       <c r="Z21" s="13">
-        <v>44235</v>
+        <v>44417</v>
       </c>
       <c r="AA21" s="11" t="s">
         <v>67</v>
@@ -5931,16 +6006,16 @@
         <v>68</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AD21" s="13">
-        <v>44235</v>
+        <v>44417</v>
       </c>
       <c r="AF21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG21" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH21" s="8" t="s">
         <v>52</v>
@@ -5949,7 +6024,7 @@
         <v>43</v>
       </c>
       <c r="AK21" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL21" s="8">
         <v>0.8</v>
@@ -5958,10 +6033,10 @@
         <v>203</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="8">
         <v>5</v>
@@ -6049,25 +6124,25 @@
       <c r="BT21" s="8">
         <v>50</v>
       </c>
-      <c r="BU21">
+      <c r="BU21" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="22" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>2</v>
+      <c r="A22" s="8">
+        <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F22" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="8">
@@ -6099,10 +6174,10 @@
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>49</v>
@@ -6117,10 +6192,10 @@
         <v>0.2</v>
       </c>
       <c r="Y22" s="13">
-        <v>44200</v>
+        <v>44445</v>
       </c>
       <c r="Z22" s="13">
-        <v>44207</v>
+        <v>44452</v>
       </c>
       <c r="AA22" s="11" t="s">
         <v>67</v>
@@ -6132,13 +6207,13 @@
         <v>67</v>
       </c>
       <c r="AD22" s="13">
-        <v>44235</v>
+        <v>44452</v>
       </c>
       <c r="AF22" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH22" s="8" t="s">
         <v>52</v>
@@ -6147,7 +6222,7 @@
         <v>43</v>
       </c>
       <c r="AK22" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL22" s="8">
         <v>0.8</v>
@@ -6159,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="AP22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="8">
         <v>5</v>
@@ -6247,25 +6322,25 @@
       <c r="BT22" s="8">
         <v>50</v>
       </c>
-      <c r="BU22">
+      <c r="BU22" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="23" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>2</v>
+      <c r="A23" s="8">
+        <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F23" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8">
@@ -6297,10 +6372,10 @@
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>49</v>
@@ -6315,10 +6390,10 @@
         <v>0.2</v>
       </c>
       <c r="Y23" s="13">
-        <v>44199.770833333336</v>
+        <v>44473</v>
       </c>
       <c r="Z23" s="13">
-        <v>44200.8125</v>
+        <v>44480</v>
       </c>
       <c r="AA23" s="11" t="s">
         <v>67</v>
@@ -6327,16 +6402,16 @@
         <v>68</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="AD23" s="13">
-        <v>44228.8125</v>
+        <v>44480</v>
       </c>
       <c r="AF23" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG23" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH23" s="8" t="s">
         <v>52</v>
@@ -6345,7 +6420,7 @@
         <v>43</v>
       </c>
       <c r="AK23" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL23" s="8">
         <v>0.8</v>
@@ -6354,10 +6429,10 @@
         <v>203</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="8">
         <v>5</v>
@@ -6445,25 +6520,25 @@
       <c r="BT23" s="8">
         <v>50</v>
       </c>
-      <c r="BU23">
+      <c r="BU23" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F24" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="8">
@@ -6495,10 +6570,10 @@
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S24" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T24" s="8" t="s">
         <v>49</v>
@@ -6513,10 +6588,10 @@
         <v>0.2</v>
       </c>
       <c r="Y24" s="13">
-        <v>44200.854166666664</v>
+        <v>44501</v>
       </c>
       <c r="Z24" s="13">
-        <v>44201.354166666664</v>
+        <v>44508</v>
       </c>
       <c r="AA24" s="11" t="s">
         <v>67</v>
@@ -6524,17 +6599,17 @@
       <c r="AB24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC24" t="s">
-        <v>89</v>
+      <c r="AC24" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD24" s="13">
-        <v>44229.354166666664</v>
+        <v>44508</v>
       </c>
       <c r="AF24" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG24" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH24" s="8" t="s">
         <v>52</v>
@@ -6543,7 +6618,7 @@
         <v>43</v>
       </c>
       <c r="AK24" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL24" s="8">
         <v>0.8</v>
@@ -6552,10 +6627,10 @@
         <v>203</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="8">
         <v>5</v>
@@ -6643,25 +6718,25 @@
       <c r="BT24" s="8">
         <v>50</v>
       </c>
-      <c r="BU24">
+      <c r="BU24" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="F25" s="15">
+        <v>12000000000</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="8">
@@ -6693,10 +6768,10 @@
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>49</v>
@@ -6711,10 +6786,10 @@
         <v>0.2</v>
       </c>
       <c r="Y25" s="13">
-        <v>44201.770833333336</v>
+        <v>44536</v>
       </c>
       <c r="Z25" s="13">
-        <v>44202.354166666664</v>
+        <v>44543</v>
       </c>
       <c r="AA25" s="11" t="s">
         <v>67</v>
@@ -6722,17 +6797,17 @@
       <c r="AB25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC25" t="s">
-        <v>89</v>
+      <c r="AC25" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="AD25" s="13">
-        <v>44230.354166666664</v>
+        <v>44543</v>
       </c>
       <c r="AF25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG25" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AH25" s="8" t="s">
         <v>52</v>
@@ -6741,7 +6816,7 @@
         <v>43</v>
       </c>
       <c r="AK25" s="8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL25" s="8">
         <v>0.8</v>
@@ -6750,10 +6825,10 @@
         <v>203</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ25" s="8">
         <v>5</v>
@@ -6841,3531 +6916,428 @@
       <c r="BT25" s="8">
         <v>50</v>
       </c>
-      <c r="BU25">
+      <c r="BU25" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="26" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="8">
-        <v>54</v>
-      </c>
-      <c r="I26" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J26" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K26" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O26" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U26" s="8">
-        <v>4</v>
-      </c>
-      <c r="V26" s="8">
-        <v>1</v>
-      </c>
-      <c r="X26" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y26" s="13">
-        <v>44202.770833333336</v>
-      </c>
-      <c r="Z26" s="13">
-        <v>44202.8125</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD26" s="13">
-        <v>44230.8125</v>
-      </c>
-      <c r="AF26" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK26" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL26" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM26" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR26" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU26" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV26" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW26" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX26" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY26" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ26" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB26" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC26" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD26" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE26" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF26" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI26" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ26" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO26" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP26" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ26" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR26" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS26" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT26" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU26">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="8">
-        <v>54</v>
-      </c>
-      <c r="I27" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J27" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K27" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L27" s="8">
-        <v>1</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O27" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P27" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U27" s="8">
-        <v>4</v>
-      </c>
-      <c r="V27" s="8">
-        <v>1</v>
-      </c>
-      <c r="X27" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>44202.854166666664</v>
-      </c>
-      <c r="Z27" s="13">
-        <v>44203.354166666664</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD27" s="13">
-        <v>44231.354166666664</v>
-      </c>
-      <c r="AF27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ27" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK27" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL27" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM27" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR27" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU27" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV27" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW27" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX27" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY27" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ27" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB27" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC27" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD27" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE27" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF27" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI27" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ27" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO27" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP27" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ27" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR27" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS27" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT27" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU27">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="8">
-        <v>54</v>
-      </c>
-      <c r="I28" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J28" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K28" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L28" s="8">
-        <v>1</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O28" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U28" s="8">
-        <v>4</v>
-      </c>
-      <c r="V28" s="8">
-        <v>1</v>
-      </c>
-      <c r="X28" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y28" s="13">
-        <v>44203.770833333336</v>
-      </c>
-      <c r="Z28" s="13">
-        <v>44204.354166666664</v>
-      </c>
-      <c r="AA28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD28" s="13">
-        <v>44234.354166666664</v>
-      </c>
-      <c r="AF28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK28" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL28" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM28" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR28" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU28" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV28" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW28" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX28" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY28" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ28" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB28" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC28" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD28" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE28" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF28" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ28" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO28" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP28" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ28" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR28" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS28" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT28" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU28">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="8">
-        <v>54</v>
-      </c>
-      <c r="I29" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J29" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K29" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L29" s="8">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O29" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U29" s="8">
-        <v>4</v>
-      </c>
-      <c r="V29" s="8">
-        <v>1</v>
-      </c>
-      <c r="X29" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>44204.770833333336</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>44204.8125</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>44232.8125</v>
-      </c>
-      <c r="AF29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK29" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL29" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM29" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR29" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU29" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV29" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW29" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX29" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY29" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ29" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB29" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC29" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD29" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE29" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF29" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI29" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ29" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO29" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP29" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ29" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR29" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS29" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT29" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU29">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8">
-        <v>54</v>
-      </c>
-      <c r="I30" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J30" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K30" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L30" s="8">
-        <v>1</v>
-      </c>
-      <c r="M30" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O30" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U30" s="8">
-        <v>4</v>
-      </c>
-      <c r="V30" s="8">
-        <v>1</v>
-      </c>
-      <c r="X30" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>44204.854166666664</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>44205.354166666664</v>
-      </c>
-      <c r="AA30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>44233.354166666664</v>
-      </c>
-      <c r="AF30" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK30" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL30" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM30" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR30" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS30" s="10"/>
-      <c r="AT30" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU30" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV30" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW30" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX30" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY30" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ30" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB30" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC30" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD30" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE30" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF30" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG30" s="10"/>
-      <c r="BH30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI30" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ30" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO30" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP30" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ30" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR30" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS30" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT30" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU30">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>2</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="8">
-        <v>54</v>
-      </c>
-      <c r="I31" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J31" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K31" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O31" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U31" s="8">
-        <v>4</v>
-      </c>
-      <c r="V31" s="8">
-        <v>1</v>
-      </c>
-      <c r="X31" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>44205.770833333336</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>44207</v>
-      </c>
-      <c r="AA31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>44235</v>
-      </c>
-      <c r="AF31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK31" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL31" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM31" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR31" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS31" s="10"/>
-      <c r="AT31" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU31" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV31" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW31" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX31" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY31" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ31" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB31" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC31" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD31" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE31" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF31" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG31" s="10"/>
-      <c r="BH31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI31" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ31" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO31" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP31" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ31" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR31" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS31" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT31" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU31">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>2</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8">
-        <v>54</v>
-      </c>
-      <c r="I32" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J32" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K32" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L32" s="8">
-        <v>1</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O32" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U32" s="8">
-        <v>4</v>
-      </c>
-      <c r="V32" s="8">
-        <v>1</v>
-      </c>
-      <c r="X32" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y32" s="13">
-        <v>44228</v>
-      </c>
-      <c r="Z32" s="13">
-        <v>44235</v>
-      </c>
-      <c r="AA32" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC32" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>44235</v>
-      </c>
-      <c r="AF32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK32" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL32" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM32" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR32" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS32" s="10"/>
-      <c r="AT32" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU32" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV32" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW32" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX32" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY32" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ32" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB32" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC32" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD32" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE32" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF32" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI32" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ32" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO32" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP32" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ32" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR32" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS32" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT32" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU32">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>2</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="8">
-        <v>54</v>
-      </c>
-      <c r="I33" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J33" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K33" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L33" s="8">
-        <v>1</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O33" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P33" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U33" s="8">
-        <v>4</v>
-      </c>
-      <c r="V33" s="8">
-        <v>1</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y33" s="13">
-        <v>44228.770833333336</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>44228.8125</v>
-      </c>
-      <c r="AA33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC33" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>44228.8125</v>
-      </c>
-      <c r="AF33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH33" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK33" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL33" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM33" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR33" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU33" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV33" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW33" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX33" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY33" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ33" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB33" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC33" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD33" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE33" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF33" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI33" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ33" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO33" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP33" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ33" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR33" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS33" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT33" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU33">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>2</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="8">
-        <v>54</v>
-      </c>
-      <c r="I34" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J34" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K34" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L34" s="8">
-        <v>1</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O34" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P34" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U34" s="8">
-        <v>4</v>
-      </c>
-      <c r="V34" s="8">
-        <v>1</v>
-      </c>
-      <c r="X34" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y34" s="13">
-        <v>44228.854166666664</v>
-      </c>
-      <c r="Z34" s="13">
-        <v>44229.354166666664</v>
-      </c>
-      <c r="AA34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD34" s="13">
-        <v>44229.354166666664</v>
-      </c>
-      <c r="AF34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK34" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL34" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM34" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN34">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR34" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU34" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV34" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW34" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX34" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY34" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ34" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB34" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC34" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD34" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE34" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF34" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI34" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ34" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO34" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP34" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ34" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR34" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS34" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT34" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU34">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>2</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8">
-        <v>54</v>
-      </c>
-      <c r="I35" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J35" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K35" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O35" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P35" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U35" s="8">
-        <v>4</v>
-      </c>
-      <c r="V35" s="8">
-        <v>1</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y35" s="13">
-        <v>44229.770833333336</v>
-      </c>
-      <c r="Z35" s="13">
-        <v>44230.354166666664</v>
-      </c>
-      <c r="AA35" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD35" s="13">
-        <v>44230.354166666664</v>
-      </c>
-      <c r="AF35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH35" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK35" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL35" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM35" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR35" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU35" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV35" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW35" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX35" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY35" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ35" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB35" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC35" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD35" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE35" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF35" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG35" s="10"/>
-      <c r="BH35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI35" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ35" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO35" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP35" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ35" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR35" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS35" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT35" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU35">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>2</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="8">
-        <v>54</v>
-      </c>
-      <c r="I36" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J36" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K36" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L36" s="8">
-        <v>1</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O36" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P36" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U36" s="8">
-        <v>4</v>
-      </c>
-      <c r="V36" s="8">
-        <v>1</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y36" s="13">
-        <v>44230.770833333336</v>
-      </c>
-      <c r="Z36" s="13">
-        <v>44230.8125</v>
-      </c>
-      <c r="AA36" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB36" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>44230.8125</v>
-      </c>
-      <c r="AF36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ36" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK36" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL36" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM36" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR36" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS36" s="10"/>
-      <c r="AT36" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU36" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV36" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW36" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX36" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY36" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ36" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB36" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC36" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD36" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE36" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF36" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG36" s="10"/>
-      <c r="BH36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI36" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ36" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO36" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP36" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ36" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR36" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS36" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT36" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU36">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>2</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="8">
-        <v>54</v>
-      </c>
-      <c r="I37" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J37" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K37" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L37" s="8">
-        <v>1</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O37" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P37" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U37" s="8">
-        <v>4</v>
-      </c>
-      <c r="V37" s="8">
-        <v>1</v>
-      </c>
-      <c r="X37" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y37" s="13">
-        <v>44230.854166666664</v>
-      </c>
-      <c r="Z37" s="13">
-        <v>44231.354166666664</v>
-      </c>
-      <c r="AA37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD37" s="13">
-        <v>44231.354166666664</v>
-      </c>
-      <c r="AF37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ37" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK37" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL37" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM37" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR37" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU37" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV37" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW37" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX37" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY37" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ37" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC37" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD37" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE37" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF37" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI37" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ37" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO37" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP37" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ37" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR37" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS37" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT37" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU37">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>2</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="8">
-        <v>54</v>
-      </c>
-      <c r="I38" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J38" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K38" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L38" s="8">
-        <v>1</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O38" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P38" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U38" s="8">
-        <v>4</v>
-      </c>
-      <c r="V38" s="8">
-        <v>1</v>
-      </c>
-      <c r="X38" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>44231.770833333336</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>44232.354166666664</v>
-      </c>
-      <c r="AA38" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB38" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD38" s="13">
-        <v>44234.354166666664</v>
-      </c>
-      <c r="AF38" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH38" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK38" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL38" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM38" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR38" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU38" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV38" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW38" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX38" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY38" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ38" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB38" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC38" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD38" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE38" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF38" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI38" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ38" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO38" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP38" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ38" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR38" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS38" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT38" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU38">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>2</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="8">
-        <v>54</v>
-      </c>
-      <c r="I39" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J39" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K39" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L39" s="8">
-        <v>1</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N39" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O39" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P39" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U39" s="8">
-        <v>4</v>
-      </c>
-      <c r="V39" s="8">
-        <v>1</v>
-      </c>
-      <c r="X39" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y39" s="13">
-        <v>44232.770833333336</v>
-      </c>
-      <c r="Z39" s="13">
-        <v>44232.8125</v>
-      </c>
-      <c r="AA39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB39" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>44232.8125</v>
-      </c>
-      <c r="AF39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH39" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK39" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL39" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM39" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR39" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU39" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV39" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW39" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX39" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY39" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ39" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB39" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC39" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD39" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE39" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF39" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI39" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ39" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO39" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP39" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ39" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR39" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS39" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT39" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU39">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>2</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8">
-        <v>54</v>
-      </c>
-      <c r="I40" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J40" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K40" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L40" s="8">
-        <v>1</v>
-      </c>
-      <c r="M40" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N40" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O40" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P40" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U40" s="8">
-        <v>4</v>
-      </c>
-      <c r="V40" s="8">
-        <v>1</v>
-      </c>
-      <c r="X40" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y40" s="13">
-        <v>44232.854166666664</v>
-      </c>
-      <c r="Z40" s="13">
-        <v>44233.354166666664</v>
-      </c>
-      <c r="AA40" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD40" s="13">
-        <v>44233.354166666664</v>
-      </c>
-      <c r="AF40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK40" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL40" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM40" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN40">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR40" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU40" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV40" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW40" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX40" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY40" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ40" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB40" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC40" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD40" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE40" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF40" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI40" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ40" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO40" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP40" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ40" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR40" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS40" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT40" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU40">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>2</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="8">
-        <v>54</v>
-      </c>
-      <c r="I41" s="8">
-        <v>59000</v>
-      </c>
-      <c r="J41" s="8">
-        <v>13700</v>
-      </c>
-      <c r="K41" s="8">
-        <v>2437.5</v>
-      </c>
-      <c r="L41" s="8">
-        <v>1</v>
-      </c>
-      <c r="M41" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="N41" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O41" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="P41" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="T41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U41" s="8">
-        <v>4</v>
-      </c>
-      <c r="V41" s="8">
-        <v>1</v>
-      </c>
-      <c r="X41" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y41" s="13">
-        <v>44233.770833333336</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>44235</v>
-      </c>
-      <c r="AA41" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC41" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD41" s="13">
-        <v>44235</v>
-      </c>
-      <c r="AF41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK41" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL41" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AM41" s="8">
-        <v>203</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR41" s="8">
-        <v>6</v>
-      </c>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="8">
-        <v>12</v>
-      </c>
-      <c r="AU41" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV41" s="8">
-        <v>10</v>
-      </c>
-      <c r="AW41" s="8">
-        <v>15</v>
-      </c>
-      <c r="AX41" s="8">
-        <v>21</v>
-      </c>
-      <c r="AY41" s="8">
-        <v>18000</v>
-      </c>
-      <c r="AZ41" s="8">
-        <v>18000</v>
-      </c>
-      <c r="BA41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BB41" s="8">
-        <v>40</v>
-      </c>
-      <c r="BC41" s="8">
-        <v>120</v>
-      </c>
-      <c r="BD41" s="8">
-        <v>40</v>
-      </c>
-      <c r="BE41" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="BF41" s="8">
-        <v>0.16</v>
-      </c>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BI41" s="8">
-        <v>355</v>
-      </c>
-      <c r="BJ41" s="8">
-        <v>1684</v>
-      </c>
-      <c r="BK41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BL41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BM41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BN41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BO41" s="8">
-        <v>1</v>
-      </c>
-      <c r="BP41" s="12">
-        <v>46.8</v>
-      </c>
-      <c r="BQ41" s="8">
-        <v>143</v>
-      </c>
-      <c r="BR41" s="8">
-        <v>23</v>
-      </c>
-      <c r="BS41" s="8">
-        <v>150</v>
-      </c>
-      <c r="BT41" s="8">
-        <v>50</v>
-      </c>
-      <c r="BU41">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Z12:AB21 Z32:AB41">
-    <cfRule type="cellIs" dxfId="69" priority="1957" operator="lessThan">
-      <formula>Y12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA14:AB21">
-    <cfRule type="expression" dxfId="68" priority="1955" stopIfTrue="1">
-      <formula>AA14&lt;&gt;AA13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS12:BT12 AA12:AB12">
-    <cfRule type="expression" dxfId="67" priority="1907" stopIfTrue="1">
-      <formula>AA12&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS13:BT13 AA13:AB13">
-    <cfRule type="expression" dxfId="66" priority="1905" stopIfTrue="1">
-      <formula>AA13&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS14:BT14">
-    <cfRule type="expression" dxfId="65" priority="1904" stopIfTrue="1">
-      <formula>BS14&lt;&gt;BS13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS15:BT21">
-    <cfRule type="expression" dxfId="64" priority="1903" stopIfTrue="1">
-      <formula>BS15&lt;&gt;BS14</formula>
+  <conditionalFormatting sqref="AD13 Z2:AB25 AD25">
+    <cfRule type="cellIs" dxfId="82" priority="1957" operator="lessThan">
+      <formula>Y2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS3:BT3 AA3:AB3 BU3:BU25">
+    <cfRule type="expression" dxfId="81" priority="1907" stopIfTrue="1">
+      <formula>AA3&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS4:BT4 AA4:AB4">
+    <cfRule type="expression" dxfId="80" priority="1902" stopIfTrue="1">
+      <formula>AA4&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS5:BT5 AA5:AB12">
+    <cfRule type="expression" dxfId="79" priority="1897" stopIfTrue="1">
+      <formula>AA5&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS6:BT6">
+    <cfRule type="expression" dxfId="78" priority="1892" stopIfTrue="1">
+      <formula>BS6&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS7:BT7">
+    <cfRule type="expression" dxfId="77" priority="1887" stopIfTrue="1">
+      <formula>BS7&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS8:BT8">
+    <cfRule type="expression" dxfId="76" priority="1882" stopIfTrue="1">
+      <formula>BS8&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS9:BT9">
+    <cfRule type="expression" dxfId="75" priority="1877" stopIfTrue="1">
+      <formula>BS9&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS10:BT10">
+    <cfRule type="expression" dxfId="74" priority="1872" stopIfTrue="1">
+      <formula>BS10&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS11:BT11">
+    <cfRule type="expression" dxfId="73" priority="1867" stopIfTrue="1">
+      <formula>BS11&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS12:BT12">
+    <cfRule type="expression" dxfId="72" priority="1862" stopIfTrue="1">
+      <formula>BS12&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="cellIs" dxfId="71" priority="1808" operator="lessThan">
+      <formula>AB3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC3">
+    <cfRule type="expression" dxfId="70" priority="1807" stopIfTrue="1">
+      <formula>AC3&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="cellIs" dxfId="69" priority="1798" operator="lessThan">
+      <formula>AB4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="expression" dxfId="68" priority="1797" stopIfTrue="1">
+      <formula>AC4&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5">
+    <cfRule type="cellIs" dxfId="67" priority="1788" operator="lessThan">
+      <formula>AB5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5">
+    <cfRule type="expression" dxfId="66" priority="1787" stopIfTrue="1">
+      <formula>AC5&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7">
+    <cfRule type="cellIs" dxfId="65" priority="1778" operator="lessThan">
+      <formula>AB7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7">
+    <cfRule type="expression" dxfId="64" priority="1777" stopIfTrue="1">
+      <formula>AC7&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="cellIs" dxfId="63" priority="1756" operator="lessThan">
+      <formula>AB6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="expression" dxfId="62" priority="1755" stopIfTrue="1">
+      <formula>AC6&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="cellIs" dxfId="61" priority="1746" operator="lessThan">
+      <formula>AB8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="expression" dxfId="60" priority="1745" stopIfTrue="1">
+      <formula>AC8&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="cellIs" dxfId="59" priority="1736" operator="lessThan">
+      <formula>AB10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="expression" dxfId="58" priority="1735" stopIfTrue="1">
+      <formula>AC10&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="cellIs" dxfId="57" priority="1726" operator="lessThan">
+      <formula>AB11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="expression" dxfId="56" priority="1725" stopIfTrue="1">
+      <formula>AC11&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="55" priority="1716" operator="lessThan">
+      <formula>AB9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="expression" dxfId="54" priority="1715" stopIfTrue="1">
+      <formula>AC9&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="63" priority="1808" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="1706" operator="lessThan">
       <formula>AB12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
-    <cfRule type="expression" dxfId="62" priority="1807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="1705" stopIfTrue="1">
       <formula>AC12&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="cellIs" dxfId="61" priority="1806" operator="lessThan">
-      <formula>AB21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="expression" dxfId="60" priority="1805" stopIfTrue="1">
-      <formula>AC21&lt;&gt;AC20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="59" priority="1804" operator="lessThan">
-      <formula>AB13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="expression" dxfId="58" priority="1803" stopIfTrue="1">
-      <formula>AC13&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16">
-    <cfRule type="cellIs" dxfId="57" priority="1802" operator="lessThan">
-      <formula>AB16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC16">
-    <cfRule type="expression" dxfId="56" priority="1801" stopIfTrue="1">
-      <formula>AC16&lt;&gt;AC15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="cellIs" dxfId="55" priority="1800" operator="lessThan">
-      <formula>AB19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19">
-    <cfRule type="expression" dxfId="54" priority="1799" stopIfTrue="1">
-      <formula>AC19&lt;&gt;AC18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12:Z21">
-    <cfRule type="cellIs" dxfId="53" priority="1686" operator="lessThan">
-      <formula>$Y$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD12:AD21 AD32:AD41">
-    <cfRule type="cellIs" dxfId="52" priority="1685" operator="lessThan">
-      <formula>Y12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AB11">
-    <cfRule type="cellIs" dxfId="51" priority="1683" operator="lessThan">
+  <conditionalFormatting sqref="Z3:Z12 Z15:Z24">
+    <cfRule type="cellIs" dxfId="51" priority="1686" operator="lessThan">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD12 AD14:AD24">
+    <cfRule type="cellIs" dxfId="50" priority="1685" operator="lessThan">
       <formula>Y2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AB11">
-    <cfRule type="expression" dxfId="50" priority="1682" stopIfTrue="1">
-      <formula>AA4&lt;&gt;AA3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS2:BT2 AA2:AB2">
+  <conditionalFormatting sqref="AA2:AB2 BS2:BU2">
     <cfRule type="expression" dxfId="49" priority="1681" stopIfTrue="1">
       <formula>AA2&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS3:BT3 AA3:AB3">
-    <cfRule type="expression" dxfId="48" priority="1680" stopIfTrue="1">
-      <formula>AA3&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS4:BT4">
-    <cfRule type="expression" dxfId="47" priority="1679" stopIfTrue="1">
-      <formula>BS4&lt;&gt;BS3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS5:BT11">
-    <cfRule type="expression" dxfId="46" priority="1678" stopIfTrue="1">
-      <formula>BS5&lt;&gt;BS4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AC2">
-    <cfRule type="cellIs" dxfId="45" priority="1677" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="1677" operator="lessThan">
       <formula>AB2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2">
-    <cfRule type="expression" dxfId="44" priority="1676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="1676" stopIfTrue="1">
       <formula>AC2&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="43" priority="1675" operator="lessThan">
-      <formula>AB11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="expression" dxfId="42" priority="1674" stopIfTrue="1">
-      <formula>AC11&lt;&gt;AC10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="cellIs" dxfId="41" priority="1673" operator="lessThan">
-      <formula>AB3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC3">
-    <cfRule type="expression" dxfId="40" priority="1672" stopIfTrue="1">
-      <formula>AC3&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="39" priority="1671" operator="lessThan">
-      <formula>AB6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="expression" dxfId="38" priority="1670" stopIfTrue="1">
-      <formula>AC6&lt;&gt;AC5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="37" priority="1669" operator="lessThan">
-      <formula>AB9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="expression" dxfId="36" priority="1668" stopIfTrue="1">
-      <formula>AC9&lt;&gt;AC8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z11">
-    <cfRule type="cellIs" dxfId="35" priority="1667" operator="lessThan">
-      <formula>$Y$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD11">
-    <cfRule type="cellIs" dxfId="34" priority="1666" operator="lessThan">
-      <formula>Y2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA34:AB41">
-    <cfRule type="expression" dxfId="33" priority="1664" stopIfTrue="1">
-      <formula>AA34&lt;&gt;AA33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS32:BT32 AA32:AB32">
-    <cfRule type="expression" dxfId="32" priority="1663" stopIfTrue="1">
-      <formula>AA32&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS33:BT33 AA33:AB33">
-    <cfRule type="expression" dxfId="31" priority="1662" stopIfTrue="1">
-      <formula>AA33&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS34:BT34">
-    <cfRule type="expression" dxfId="30" priority="1661" stopIfTrue="1">
-      <formula>BS34&lt;&gt;BS33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS35:BT41">
-    <cfRule type="expression" dxfId="29" priority="1660" stopIfTrue="1">
-      <formula>BS35&lt;&gt;BS34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC32">
-    <cfRule type="cellIs" dxfId="28" priority="1598" operator="lessThan">
-      <formula>AB32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC32">
-    <cfRule type="expression" dxfId="27" priority="1597" stopIfTrue="1">
-      <formula>AC32&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC41">
-    <cfRule type="cellIs" dxfId="26" priority="1596" operator="lessThan">
-      <formula>AB41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC41">
-    <cfRule type="expression" dxfId="25" priority="1595" stopIfTrue="1">
-      <formula>AC41&lt;&gt;AC40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC33">
-    <cfRule type="cellIs" dxfId="24" priority="1594" operator="lessThan">
-      <formula>AB33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC33">
-    <cfRule type="expression" dxfId="23" priority="1593" stopIfTrue="1">
-      <formula>AC33&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC36">
-    <cfRule type="cellIs" dxfId="22" priority="1592" operator="lessThan">
-      <formula>AB36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC36">
-    <cfRule type="expression" dxfId="21" priority="1591" stopIfTrue="1">
-      <formula>AC36&lt;&gt;AC35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39">
-    <cfRule type="cellIs" dxfId="20" priority="1590" operator="lessThan">
-      <formula>AB39</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC39">
-    <cfRule type="expression" dxfId="19" priority="1589" stopIfTrue="1">
-      <formula>AC39&lt;&gt;AC38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z32:Z41">
-    <cfRule type="cellIs" dxfId="18" priority="1498" operator="lessThan">
-      <formula>$Y$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:AB31">
-    <cfRule type="cellIs" dxfId="17" priority="1496" operator="lessThan">
-      <formula>Y22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA24:AB31">
-    <cfRule type="expression" dxfId="16" priority="1495" stopIfTrue="1">
-      <formula>AA24&lt;&gt;AA23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS22:BT22 AA22:AB22">
-    <cfRule type="expression" dxfId="15" priority="1494" stopIfTrue="1">
-      <formula>AA22&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS23:BT23 AA23:AB23">
-    <cfRule type="expression" dxfId="14" priority="1493" stopIfTrue="1">
-      <formula>AA23&lt;&gt;#REF!</formula>
+  <conditionalFormatting sqref="Z2">
+    <cfRule type="cellIs" dxfId="46" priority="1667" operator="lessThan">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS15:BT15 AA15:AB15">
+    <cfRule type="expression" dxfId="45" priority="541" stopIfTrue="1">
+      <formula>AA15&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS16:BT16 AA16:AB16">
+    <cfRule type="expression" dxfId="44" priority="537" stopIfTrue="1">
+      <formula>AA16&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS17:BT17 AA17:AB24">
+    <cfRule type="expression" dxfId="43" priority="532" stopIfTrue="1">
+      <formula>AA17&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS18:BT18">
+    <cfRule type="expression" dxfId="42" priority="527" stopIfTrue="1">
+      <formula>BS18&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS19:BT19">
+    <cfRule type="expression" dxfId="41" priority="522" stopIfTrue="1">
+      <formula>BS19&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS20:BT20">
+    <cfRule type="expression" dxfId="40" priority="517" stopIfTrue="1">
+      <formula>BS20&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS21:BT21">
+    <cfRule type="expression" dxfId="39" priority="512" stopIfTrue="1">
+      <formula>BS21&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS22:BT22">
+    <cfRule type="expression" dxfId="38" priority="507" stopIfTrue="1">
+      <formula>BS22&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS23:BT23">
+    <cfRule type="expression" dxfId="37" priority="502" stopIfTrue="1">
+      <formula>BS23&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS24:BT24">
-    <cfRule type="expression" dxfId="13" priority="1492" stopIfTrue="1">
-      <formula>BS24&lt;&gt;BS23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS25:BT31">
-    <cfRule type="expression" dxfId="12" priority="1491" stopIfTrue="1">
-      <formula>BS25&lt;&gt;BS24</formula>
+    <cfRule type="expression" dxfId="36" priority="497" stopIfTrue="1">
+      <formula>BS24&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="cellIs" dxfId="35" priority="476" operator="lessThan">
+      <formula>AB15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="expression" dxfId="34" priority="475" stopIfTrue="1">
+      <formula>AC15&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="cellIs" dxfId="33" priority="466" operator="lessThan">
+      <formula>AB16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC16">
+    <cfRule type="expression" dxfId="32" priority="465" stopIfTrue="1">
+      <formula>AC16&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC17">
+    <cfRule type="cellIs" dxfId="31" priority="458" operator="lessThan">
+      <formula>AB17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC17">
+    <cfRule type="expression" dxfId="30" priority="457" stopIfTrue="1">
+      <formula>AC17&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19">
+    <cfRule type="cellIs" dxfId="29" priority="448" operator="lessThan">
+      <formula>AB19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19">
+    <cfRule type="expression" dxfId="28" priority="447" stopIfTrue="1">
+      <formula>AC19&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC18">
+    <cfRule type="cellIs" dxfId="27" priority="436" operator="lessThan">
+      <formula>AB18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC18">
+    <cfRule type="expression" dxfId="26" priority="435" stopIfTrue="1">
+      <formula>AC18&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20">
+    <cfRule type="cellIs" dxfId="25" priority="426" operator="lessThan">
+      <formula>AB20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC20">
+    <cfRule type="expression" dxfId="24" priority="425" stopIfTrue="1">
+      <formula>AC20&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22">
-    <cfRule type="cellIs" dxfId="11" priority="1490" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="416" operator="lessThan">
       <formula>AB22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC22">
-    <cfRule type="expression" dxfId="10" priority="1489" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="415" stopIfTrue="1">
       <formula>AC22&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
-    <cfRule type="cellIs" dxfId="9" priority="1488" operator="lessThan">
-      <formula>AB31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC31">
-    <cfRule type="expression" dxfId="8" priority="1487" stopIfTrue="1">
-      <formula>AC31&lt;&gt;AC30</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AC23">
-    <cfRule type="cellIs" dxfId="7" priority="1486" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="406" operator="lessThan">
       <formula>AB23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC23">
-    <cfRule type="expression" dxfId="6" priority="1485" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="405" stopIfTrue="1">
       <formula>AC23&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="5" priority="1484" operator="lessThan">
-      <formula>AB26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
-    <cfRule type="expression" dxfId="4" priority="1483" stopIfTrue="1">
-      <formula>AC26&lt;&gt;AC25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="3" priority="1482" operator="lessThan">
-      <formula>AB29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
-    <cfRule type="expression" dxfId="2" priority="1481" stopIfTrue="1">
-      <formula>AC29&lt;&gt;AC28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z22:Z31">
-    <cfRule type="cellIs" dxfId="1" priority="1480" operator="lessThan">
-      <formula>$Y$12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD22:AD31">
-    <cfRule type="cellIs" dxfId="0" priority="1479" operator="lessThan">
-      <formula>Y22</formula>
+  <conditionalFormatting sqref="AC21">
+    <cfRule type="cellIs" dxfId="19" priority="396" operator="lessThan">
+      <formula>AB21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC21">
+    <cfRule type="expression" dxfId="18" priority="395" stopIfTrue="1">
+      <formula>AC21&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24">
+    <cfRule type="cellIs" dxfId="17" priority="386" operator="lessThan">
+      <formula>AB24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24">
+    <cfRule type="expression" dxfId="16" priority="385" stopIfTrue="1">
+      <formula>AC24&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS14:BT14 AA14:AB14">
+    <cfRule type="expression" dxfId="15" priority="372" stopIfTrue="1">
+      <formula>AA14&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="cellIs" dxfId="14" priority="368" operator="lessThan">
+      <formula>AB14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="expression" dxfId="13" priority="367" stopIfTrue="1">
+      <formula>AC14&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14">
+    <cfRule type="cellIs" dxfId="12" priority="358" operator="lessThan">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13:AB13">
+    <cfRule type="expression" dxfId="11" priority="167" stopIfTrue="1">
+      <formula>AA13&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS13:BT13">
+    <cfRule type="expression" dxfId="10" priority="166" stopIfTrue="1">
+      <formula>BS13&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
+    <cfRule type="cellIs" dxfId="9" priority="160" operator="lessThan">
+      <formula>AB13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
+    <cfRule type="expression" dxfId="8" priority="159" stopIfTrue="1">
+      <formula>AC13&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
+    <cfRule type="cellIs" dxfId="7" priority="151" operator="lessThan">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="cellIs" dxfId="6" priority="148" operator="lessThan">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25:AB25">
+    <cfRule type="expression" dxfId="5" priority="19" stopIfTrue="1">
+      <formula>AA25&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS25:BT25">
+    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
+      <formula>BS25&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThan">
+      <formula>AB25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
+      <formula>AC25&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>$Y$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$Y$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
